--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -88,12 +88,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>hope</t>
@@ -1018,25 +1018,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6652360515021459</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L16">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,25 +1044,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6521739130434783</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1148,25 +1148,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5548780487804879</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="L21">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,25 +1174,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5444444444444444</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="N22">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="10:17">
